--- a/July 2018/Weekend-Weekday Model/Validation/Valid_July2018(2Periods).xlsx
+++ b/July 2018/Weekend-Weekday Model/Validation/Valid_July2018(2Periods).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Class project\GCD_BugFlowExperiment\July 2018\Weekend-Weekday Model\Validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C08748CA-DC4F-433A-A3DB-DC6739DEA494}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B46825D-85D6-44DA-AB95-18F2B4213CAC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17268" windowHeight="7932" xr2:uid="{62F23090-2FD2-4A02-AF8B-E034036391B2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17268" windowHeight="7932" xr2:uid="{163708A5-FD60-48BC-A6E2-26728967FE3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Table of Contents" sheetId="22" r:id="rId1"/>
@@ -928,7 +928,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9FD85CB-D023-469C-8973-C2C09BE44398}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF2726C-7CFD-4999-A305-430795BE4767}">
   <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1838,65 +1838,65 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" location="Scalar!A1" display="Avail_Water" xr:uid="{90D3D33E-2595-47D7-8B8C-6E0AF2BD9E6E}"/>
-    <hyperlink ref="A3" location="Scalar!A1" display="Convert" xr:uid="{E2A09D3C-8663-43B2-B67F-722248E692E3}"/>
-    <hyperlink ref="A4" location="d!A1" display="d" xr:uid="{59DF05C0-4F81-4309-8F83-0DB1AD3017F0}"/>
-    <hyperlink ref="A5" location="Scalar!A1" display="Daily_Ramprate" xr:uid="{87C421CD-9B69-4E9D-B3EC-46E02D70F1A8}"/>
-    <hyperlink ref="A6" location="Duration!A1" display="Duration" xr:uid="{FF304563-2EFD-43D8-B419-2E7F910BEFF0}"/>
-    <hyperlink ref="A7" location="EnergyRate!A1" display="EnergyRate" xr:uid="{85100878-286B-433F-87C2-66F26278A9B5}"/>
-    <hyperlink ref="A8" location="Energy_Gen!A1" display="Energy_Gen" xr:uid="{04BE25A8-AC25-4457-B856-7D8B27AE453B}"/>
-    <hyperlink ref="A9" location="EQ10_EnergyGen_Max!A1" display="EQ10_EnergyGen_Max" xr:uid="{1B879E76-5074-4FDE-AB41-99B5199C4D70}"/>
-    <hyperlink ref="A10" location="Scalar!A1" display="EQ11_EnergyRevenue" xr:uid="{CF4F2CB2-ACC0-4B6F-931D-2E2AB38F17B6}"/>
-    <hyperlink ref="A11" location="Scalar!A1" display="EQ12_Revenue" xr:uid="{1E13EAC1-2D59-4CF1-A8E9-6E51C9FEF52E}"/>
-    <hyperlink ref="A12" location="Scalar!A1" display="EQ1__ResMassBal" xr:uid="{E6F0CEE4-E365-41EE-8B11-5FFA586A339B}"/>
-    <hyperlink ref="A13" location="Scalar!A1" display="EQ2__reqpowerstorage" xr:uid="{5C6D7285-48CA-40DD-ABBD-91F37DA14E7F}"/>
-    <hyperlink ref="A14" location="Scalar!A1" display="EQ3__maxstor" xr:uid="{D0FC4B56-62BB-4C47-BAC1-29FE54357D10}"/>
-    <hyperlink ref="A15" location="EQ4__MaxR!A1" display="EQ4__MaxR" xr:uid="{15F55C3F-3276-4FE7-B2AA-DBB12B0F6FDD}"/>
-    <hyperlink ref="A16" location="EQ5__MinR!A1" display="EQ5__MinR" xr:uid="{80AA0F63-0B2E-455F-9C20-A9D85CFAB2AF}"/>
-    <hyperlink ref="A17" location="EQ6_Rampup_rate!A1" display="EQ6_Rampup_rate" xr:uid="{64DDE718-055F-48CB-9AEE-A1E56BD74B6B}"/>
-    <hyperlink ref="A18" location="Scalar!A1" display="EQ7__Monthtlyrel" xr:uid="{5D986449-850E-44C7-9CAD-51C5049C7F20}"/>
-    <hyperlink ref="A19" location="EQ8_SteadyEnergy!A1" display="EQ8_SteadyEnergy" xr:uid="{869E8164-42B6-4B6B-8AEB-E75D11DCDFBE}"/>
-    <hyperlink ref="A20" location="EQ9_EnergyGen!A1" display="EQ9_EnergyGen" xr:uid="{BB597515-C16D-4A55-8ADC-151510297836}"/>
-    <hyperlink ref="A21" location="Scalar!A1" display="EQa_Inflow" xr:uid="{888EB8CF-3E02-4326-8660-B938FA9D32EF}"/>
-    <hyperlink ref="A22" location="Scalar!A1" display="EQb_SteadyOutflow" xr:uid="{0A9EE2BC-FE9F-4C6A-B737-42E49EC11556}"/>
-    <hyperlink ref="A23" location="Scalar!A1" display="EQc_UnSteadyOutflow" xr:uid="{A8967D96-92A5-438F-87A3-4981540B0197}"/>
-    <hyperlink ref="A24" location="evap!A1" display="evap" xr:uid="{BE950E00-6F14-4F56-BA39-98C44E8BCB41}"/>
-    <hyperlink ref="A25" location="Scalar!A1" display="FStore" xr:uid="{31BEAE69-EBDC-44A7-BF11-131D43879C50}"/>
-    <hyperlink ref="A26" location="Inflow!A1" display="Inflow" xr:uid="{19766441-067E-4975-B6C2-6072848E9D29}"/>
-    <hyperlink ref="A27" location="Scalar!A1" display="initstorage" xr:uid="{C5E70CFA-88FB-40AB-9E90-EDDBDFC4F366}"/>
-    <hyperlink ref="A28" location="Scalar!A1" display="maxRel" xr:uid="{7511047B-C1F8-46A3-B856-B593CBDB71EA}"/>
-    <hyperlink ref="A29" location="Scalar!A1" display="maxstorage" xr:uid="{360C588F-7568-4404-92F7-1A5F2FCF8CB1}"/>
-    <hyperlink ref="A30" location="Scalar!A1" display="minRel" xr:uid="{6C4C1771-4427-4E58-9206-33CEBC86A3A6}"/>
-    <hyperlink ref="A31" location="Scalar!A1" display="minstorage" xr:uid="{4D5E2775-7400-406B-AAFD-98625B29622B}"/>
-    <hyperlink ref="A32" location="ModelResults!A1" display="ModelResults" xr:uid="{6B6F5BEB-C98D-40E8-B097-13E0CDEF6F16}"/>
-    <hyperlink ref="A33" location="modpar!A1" display="modpar" xr:uid="{ED398481-A942-4C76-83D5-24C25AA3178D}"/>
-    <hyperlink ref="A34" location="Scalar!A1" display="Num_of_timesteps" xr:uid="{AB49D944-B813-40FA-A3B0-A17A106562AC}"/>
-    <hyperlink ref="A35" location="Scalar!A1" display="ObjectiveVal" xr:uid="{A04872BC-39FA-4ABA-BDDD-3FDA458A2AA1}"/>
-    <hyperlink ref="A36" location="p!A1" display="p" xr:uid="{86854FF9-C763-4DDB-B166-B9CA89C69CB6}"/>
-    <hyperlink ref="A37" location="release!A1" display="release" xr:uid="{9C6260EF-3FBC-4B3F-A42B-483F4EEEFE11}"/>
-    <hyperlink ref="A38" location="RStore_steady!A1" display="RStore_steady" xr:uid="{A39FC80A-5457-4A00-8DD8-90E7FA2C5DAC}"/>
-    <hyperlink ref="A39" location="RStore_unsteady!A1" display="RStore_unsteady" xr:uid="{EF976CC7-3CB2-49CE-8151-B0C3B2B90101}"/>
-    <hyperlink ref="A40" location="Scalar!A1" display="Sstore" xr:uid="{A488EC9D-7EBA-4989-8CB8-171F7C595FEE}"/>
-    <hyperlink ref="A41" location="SteadyEn_Gen!A1" display="SteadyEn_Gen" xr:uid="{4A4AD144-1AAB-49F7-99CF-5DC6A980AC75}"/>
-    <hyperlink ref="A42" location="Scalar!A1" display="Steady_Days" xr:uid="{8C209C58-D6D9-406D-92C9-1A6F1213E529}"/>
-    <hyperlink ref="A43" location="Scalar!A1" display="steady_Outflow" xr:uid="{1530D0CA-8BD1-45F8-B46C-40F0F3F41DE5}"/>
-    <hyperlink ref="A44" location="Scalar!A1" display="Steady_Release" xr:uid="{73F6DDE0-8D8B-4E35-99BC-04B84E566CFD}"/>
-    <hyperlink ref="A45" location="Scalar!A1" display="storage" xr:uid="{A4511C93-A0D2-4D48-9E09-6605FE1E2C8D}"/>
-    <hyperlink ref="A46" location="Scalar!A1" display="Totaldays" xr:uid="{01205BED-8D79-400A-96B1-21BE45DF6BE6}"/>
-    <hyperlink ref="A47" location="Scalar!A1" display="TotMonth_volume" xr:uid="{99700FE8-A39C-4DA9-8288-FBE777321B3D}"/>
-    <hyperlink ref="A48" location="Scalar!A1" display="unsteady_Outflow" xr:uid="{50632A54-8841-4695-8970-6E6416094FF7}"/>
-    <hyperlink ref="A49" location="Scalar!A1" display="weekdays" xr:uid="{DA172AB4-369A-44AF-902E-0D7EB9A57465}"/>
-    <hyperlink ref="A50" location="weekendRate!A1" display="weekendRate" xr:uid="{3FFFAF02-8446-4A62-9282-0B93CE332E08}"/>
-    <hyperlink ref="A51" location="Scalar!A1" display="weekends" xr:uid="{2E35D891-F6E6-4A68-9746-183A60F4B8C6}"/>
-    <hyperlink ref="A52" location="Scalar!A1" display="XStore_steady" xr:uid="{EB17E70D-F5F6-43A7-B537-39BFECFA761E}"/>
-    <hyperlink ref="A53" location="Scalar!A1" display="XStore_unsteady" xr:uid="{06C7DEAF-F4C9-4BE6-853B-D9CE468E2A71}"/>
+    <hyperlink ref="A2" location="Scalar!A1" display="Avail_Water" xr:uid="{2DFAEF8D-D1EC-40E3-9FFF-8A1F085A6731}"/>
+    <hyperlink ref="A3" location="Scalar!A1" display="Convert" xr:uid="{FDC8AC9A-5B8B-4A2F-AE4D-358B71803164}"/>
+    <hyperlink ref="A4" location="d!A1" display="d" xr:uid="{61AD0C2C-1BF2-4F39-BF80-2E6F84E59120}"/>
+    <hyperlink ref="A5" location="Scalar!A1" display="Daily_Ramprate" xr:uid="{890294EF-50F8-46DD-B7D8-0B96B7BC4D87}"/>
+    <hyperlink ref="A6" location="Duration!A1" display="Duration" xr:uid="{BD6CB5C3-F99E-4A70-B17B-D2BBB559C2BF}"/>
+    <hyperlink ref="A7" location="EnergyRate!A1" display="EnergyRate" xr:uid="{A3E858E3-FF71-4FD4-A137-9F65341FB133}"/>
+    <hyperlink ref="A8" location="Energy_Gen!A1" display="Energy_Gen" xr:uid="{E9CFA0D3-C9FD-4821-8B5A-035EB25E2A57}"/>
+    <hyperlink ref="A9" location="EQ10_EnergyGen_Max!A1" display="EQ10_EnergyGen_Max" xr:uid="{4F1FF8FA-BEEF-4356-AF3B-89DBECB85AB6}"/>
+    <hyperlink ref="A10" location="Scalar!A1" display="EQ11_EnergyRevenue" xr:uid="{AE77DF43-8226-4D6E-956C-BABF6942EC2A}"/>
+    <hyperlink ref="A11" location="Scalar!A1" display="EQ12_Revenue" xr:uid="{EDD5A789-A330-488C-A462-6CF6D02C4592}"/>
+    <hyperlink ref="A12" location="Scalar!A1" display="EQ1__ResMassBal" xr:uid="{0762CD46-3476-444E-B1EA-0E558837A236}"/>
+    <hyperlink ref="A13" location="Scalar!A1" display="EQ2__reqpowerstorage" xr:uid="{90F636F0-901D-4137-B9ED-EF9EE17C76BB}"/>
+    <hyperlink ref="A14" location="Scalar!A1" display="EQ3__maxstor" xr:uid="{E5FC4D82-C453-4F7B-8FD3-F415B85F2751}"/>
+    <hyperlink ref="A15" location="EQ4__MaxR!A1" display="EQ4__MaxR" xr:uid="{9AB27DA9-F962-4182-95E3-064364FD8938}"/>
+    <hyperlink ref="A16" location="EQ5__MinR!A1" display="EQ5__MinR" xr:uid="{EFC4133C-78E1-499C-BA17-53A960820AC0}"/>
+    <hyperlink ref="A17" location="EQ6_Rampup_rate!A1" display="EQ6_Rampup_rate" xr:uid="{8FD6DF52-9664-400D-8A7B-8EA9AF221153}"/>
+    <hyperlink ref="A18" location="Scalar!A1" display="EQ7__Monthtlyrel" xr:uid="{188FB5B3-B8CB-4965-B722-7F590B83B3D8}"/>
+    <hyperlink ref="A19" location="EQ8_SteadyEnergy!A1" display="EQ8_SteadyEnergy" xr:uid="{3BAABD5B-85A0-45B7-A6D5-9551316E195E}"/>
+    <hyperlink ref="A20" location="EQ9_EnergyGen!A1" display="EQ9_EnergyGen" xr:uid="{C6032C5E-38C4-4241-B516-FDCB08C097F0}"/>
+    <hyperlink ref="A21" location="Scalar!A1" display="EQa_Inflow" xr:uid="{4C2D4C50-40FF-483D-9DBE-E28D6AC58720}"/>
+    <hyperlink ref="A22" location="Scalar!A1" display="EQb_SteadyOutflow" xr:uid="{D8A919A8-3064-4C18-A3F9-7875E82B977E}"/>
+    <hyperlink ref="A23" location="Scalar!A1" display="EQc_UnSteadyOutflow" xr:uid="{4B204E7A-C858-4556-9BE0-7FBD9DE9CC47}"/>
+    <hyperlink ref="A24" location="evap!A1" display="evap" xr:uid="{583E2527-4380-4923-A811-A417C46B92D8}"/>
+    <hyperlink ref="A25" location="Scalar!A1" display="FStore" xr:uid="{2D0F1409-519C-417F-9501-67F71A994155}"/>
+    <hyperlink ref="A26" location="Inflow!A1" display="Inflow" xr:uid="{85302042-F803-4616-8CAD-42695ACD32A1}"/>
+    <hyperlink ref="A27" location="Scalar!A1" display="initstorage" xr:uid="{C496E8EC-43E9-4617-98DE-FA4995D616CB}"/>
+    <hyperlink ref="A28" location="Scalar!A1" display="maxRel" xr:uid="{B7E528A9-46E0-4DD6-9E3E-CC16D9210779}"/>
+    <hyperlink ref="A29" location="Scalar!A1" display="maxstorage" xr:uid="{C88E94AA-9B9E-44A3-B8E4-0352AECDBD2C}"/>
+    <hyperlink ref="A30" location="Scalar!A1" display="minRel" xr:uid="{569B7354-06DD-4F92-8CFF-D448C2DA4DBE}"/>
+    <hyperlink ref="A31" location="Scalar!A1" display="minstorage" xr:uid="{DB320AD2-DC2B-40B5-9877-DAE002E576E9}"/>
+    <hyperlink ref="A32" location="ModelResults!A1" display="ModelResults" xr:uid="{2854B071-1658-4DCB-9B5C-AD871DAB1792}"/>
+    <hyperlink ref="A33" location="modpar!A1" display="modpar" xr:uid="{2570F68A-9515-48A1-99F5-4E02B7A03A3C}"/>
+    <hyperlink ref="A34" location="Scalar!A1" display="Num_of_timesteps" xr:uid="{DFB2CE7F-C2E4-49E8-8B34-273EB9C453A5}"/>
+    <hyperlink ref="A35" location="Scalar!A1" display="ObjectiveVal" xr:uid="{25F816D8-D0AC-43A9-80A8-EF0AB87D3AB0}"/>
+    <hyperlink ref="A36" location="p!A1" display="p" xr:uid="{BC5D32F4-8213-46CF-8516-55E9F3390D6A}"/>
+    <hyperlink ref="A37" location="release!A1" display="release" xr:uid="{5E7F2599-5360-4407-8B96-02A4F157321F}"/>
+    <hyperlink ref="A38" location="RStore_steady!A1" display="RStore_steady" xr:uid="{50329B1E-1949-436F-A137-2A93AE4CA11A}"/>
+    <hyperlink ref="A39" location="RStore_unsteady!A1" display="RStore_unsteady" xr:uid="{F7A5E43C-8F77-4D72-9830-E71573CEC60A}"/>
+    <hyperlink ref="A40" location="Scalar!A1" display="Sstore" xr:uid="{D936D204-A1FB-4348-8909-0E4A0CF63AAF}"/>
+    <hyperlink ref="A41" location="SteadyEn_Gen!A1" display="SteadyEn_Gen" xr:uid="{C8CA92CD-B8B4-4D77-954B-31D5558518ED}"/>
+    <hyperlink ref="A42" location="Scalar!A1" display="Steady_Days" xr:uid="{2AA86206-AA8A-40E9-9E42-EDED4E694FAC}"/>
+    <hyperlink ref="A43" location="Scalar!A1" display="steady_Outflow" xr:uid="{7EC03F8D-7A24-45A3-936F-262B0362AF49}"/>
+    <hyperlink ref="A44" location="Scalar!A1" display="Steady_Release" xr:uid="{009C52A6-B541-4F5D-96D2-AA8B711BA3E5}"/>
+    <hyperlink ref="A45" location="Scalar!A1" display="storage" xr:uid="{55918ECB-80F8-4AE7-842E-82CEA38AEE7E}"/>
+    <hyperlink ref="A46" location="Scalar!A1" display="Totaldays" xr:uid="{A57A44BF-3E7F-4836-B2FC-D3F1AB23598D}"/>
+    <hyperlink ref="A47" location="Scalar!A1" display="TotMonth_volume" xr:uid="{B0BBCD95-CC1C-4577-B6B3-27EB736E1429}"/>
+    <hyperlink ref="A48" location="Scalar!A1" display="unsteady_Outflow" xr:uid="{E2EF17AF-C57A-4BEB-9E5D-F5E1EF2DF26C}"/>
+    <hyperlink ref="A49" location="Scalar!A1" display="weekdays" xr:uid="{3EA01864-E51F-49FD-A96A-DEC9E8F609CC}"/>
+    <hyperlink ref="A50" location="weekendRate!A1" display="weekendRate" xr:uid="{97EA8475-1E64-49BB-B999-B5BEBFE79520}"/>
+    <hyperlink ref="A51" location="Scalar!A1" display="weekends" xr:uid="{88C58104-DB0B-44A6-B142-FA7D451C6B13}"/>
+    <hyperlink ref="A52" location="Scalar!A1" display="XStore_steady" xr:uid="{EBA08EAA-AB14-4951-B5FB-27AABA5D7272}"/>
+    <hyperlink ref="A53" location="Scalar!A1" display="XStore_unsteady" xr:uid="{7F13BABC-7D7B-41F5-BC71-970855CFA821}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D675D05-C89B-498A-8D3B-3AC3AC6911B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB7C9DA2-D1B7-4C58-AA7D-5A7293E7C216}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1974,16 +1974,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E5" xr:uid="{F03B772F-3B87-47F1-8FCD-206EE923B517}"/>
+  <autoFilter ref="A3:E5" xr:uid="{EBFAF0EA-B0E9-41AE-AF3C-785DB6EA30AF}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{E95DF5B7-D6E7-437C-94A2-0EF33A7BBFAE}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{A242836A-51ED-4FF2-9B83-357B69B1D6FA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93F74FC9-EB19-45E0-A9B3-CC04A266FCE9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F55DF0B3-3BFE-4169-A63D-C7A125ADF650}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2061,16 +2061,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E5" xr:uid="{16C39593-FD7C-4C64-989B-37D98A7818D4}"/>
+  <autoFilter ref="A3:E5" xr:uid="{C50F454D-2FB0-42B9-B617-548F5B772F97}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{65E6C3C0-0578-4F9F-8160-F621188F58A2}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{6E60759A-4221-4166-B6AD-7CE93C3D2DFD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ED699DD-33AB-4DF7-85AC-23581BF2F0C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFF7B5BB-DBC3-406D-8183-B649DEE2E23E}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2148,16 +2148,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E5" xr:uid="{B1C94555-EB9C-4824-8BCC-145A7E599A2B}"/>
+  <autoFilter ref="A3:E5" xr:uid="{96E46589-8BA2-44F5-9072-EBCF4D0FB75B}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{8ECBFB72-B69E-422C-846D-5CAB6272876A}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{0BA7998E-4330-4037-885C-256927543C71}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1862F3EA-5D06-4B63-BA4D-10EB32CD196A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE8AB612-FBA5-4CA7-88F1-B4362F8BA78F}">
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2196,7 +2196,7 @@
         <v>38</v>
       </c>
       <c r="B4">
-        <v>3609.81</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2204,7 +2204,7 @@
         <v>39</v>
       </c>
       <c r="B5">
-        <v>3609.58</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2212,7 +2212,7 @@
         <v>40</v>
       </c>
       <c r="B6">
-        <v>3609.38</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2220,7 +2220,7 @@
         <v>41</v>
       </c>
       <c r="B7">
-        <v>3609.23</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2228,7 +2228,7 @@
         <v>42</v>
       </c>
       <c r="B8">
-        <v>3609.01</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2236,7 +2236,7 @@
         <v>43</v>
       </c>
       <c r="B9">
-        <v>3608.79</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2244,7 +2244,7 @@
         <v>44</v>
       </c>
       <c r="B10">
-        <v>3608.64</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2252,7 +2252,7 @@
         <v>45</v>
       </c>
       <c r="B11">
-        <v>3608.48</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2260,7 +2260,7 @@
         <v>46</v>
       </c>
       <c r="B12">
-        <v>3608.24</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2268,7 +2268,7 @@
         <v>47</v>
       </c>
       <c r="B13">
-        <v>3608.02</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2276,7 +2276,7 @@
         <v>48</v>
       </c>
       <c r="B14">
-        <v>3607.8</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2284,7 +2284,7 @@
         <v>49</v>
       </c>
       <c r="B15">
-        <v>3607.58</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2292,7 +2292,7 @@
         <v>50</v>
       </c>
       <c r="B16">
-        <v>3607.35</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2300,7 +2300,7 @@
         <v>51</v>
       </c>
       <c r="B17">
-        <v>3607.22</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2308,7 +2308,7 @@
         <v>52</v>
       </c>
       <c r="B18">
-        <v>3607.05</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2316,7 +2316,7 @@
         <v>53</v>
       </c>
       <c r="B19">
-        <v>3606.82</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2324,7 +2324,7 @@
         <v>54</v>
       </c>
       <c r="B20">
-        <v>3606.62</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2332,7 +2332,7 @@
         <v>55</v>
       </c>
       <c r="B21">
-        <v>3606.43</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2340,7 +2340,7 @@
         <v>56</v>
       </c>
       <c r="B22">
-        <v>3606.21</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2348,7 +2348,7 @@
         <v>57</v>
       </c>
       <c r="B23">
-        <v>3606.01</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2356,7 +2356,7 @@
         <v>58</v>
       </c>
       <c r="B24">
-        <v>3605.9</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2364,7 +2364,7 @@
         <v>59</v>
       </c>
       <c r="B25">
-        <v>3605.75</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2372,7 +2372,7 @@
         <v>60</v>
       </c>
       <c r="B26">
-        <v>3605.53</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2380,7 +2380,7 @@
         <v>61</v>
       </c>
       <c r="B27">
-        <v>3605.31</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2388,7 +2388,7 @@
         <v>62</v>
       </c>
       <c r="B28">
-        <v>3605.05</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2396,7 +2396,7 @@
         <v>63</v>
       </c>
       <c r="B29">
-        <v>3604.83</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2404,7 +2404,7 @@
         <v>64</v>
       </c>
       <c r="B30">
-        <v>3604.6</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2412,7 +2412,7 @@
         <v>65</v>
       </c>
       <c r="B31">
-        <v>3604.43</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2420,7 +2420,7 @@
         <v>66</v>
       </c>
       <c r="B32">
-        <v>3604.26</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2428,7 +2428,7 @@
         <v>67</v>
       </c>
       <c r="B33">
-        <v>3604.04</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2436,20 +2436,20 @@
         <v>68</v>
       </c>
       <c r="B34">
-        <v>3603.8</v>
+        <v>1661</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:B34" xr:uid="{5E5025A7-FE60-491D-BEFF-0B568B3E4D5A}"/>
+  <autoFilter ref="A3:B34" xr:uid="{449B3545-9B15-4216-B2C7-6289741E4AD3}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{AC360D05-B264-45BA-A11C-3457424A3E0F}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{EF39AE71-4AF7-4375-A680-16D3281197BC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E812DF20-D0D6-460D-B0E5-2D2A2E678AFD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F76657CC-9B5C-485E-BECB-23EEDE6E191E}">
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2488,7 +2488,7 @@
         <v>38</v>
       </c>
       <c r="B4">
-        <v>1732</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2496,7 +2496,7 @@
         <v>39</v>
       </c>
       <c r="B5">
-        <v>1730</v>
+        <v>3660</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2504,7 +2504,7 @@
         <v>40</v>
       </c>
       <c r="B6">
-        <v>1727</v>
+        <v>5360</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2512,7 +2512,7 @@
         <v>41</v>
       </c>
       <c r="B7">
-        <v>1726</v>
+        <v>3831</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2520,7 +2520,7 @@
         <v>42</v>
       </c>
       <c r="B8">
-        <v>1723</v>
+        <v>4188</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2528,7 +2528,7 @@
         <v>43</v>
       </c>
       <c r="B9">
-        <v>1720</v>
+        <v>4340</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2536,7 +2536,7 @@
         <v>44</v>
       </c>
       <c r="B10">
-        <v>1719</v>
+        <v>3944</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2544,7 +2544,7 @@
         <v>45</v>
       </c>
       <c r="B11">
-        <v>1717</v>
+        <v>3349</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2552,7 +2552,7 @@
         <v>46</v>
       </c>
       <c r="B12">
-        <v>1714</v>
+        <v>3215</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2560,7 +2560,7 @@
         <v>47</v>
       </c>
       <c r="B13">
-        <v>1711</v>
+        <v>4257</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2568,7 +2568,7 @@
         <v>48</v>
       </c>
       <c r="B14">
-        <v>1709</v>
+        <v>4265</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2576,7 +2576,7 @@
         <v>49</v>
       </c>
       <c r="B15">
-        <v>1706</v>
+        <v>4177</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2584,7 +2584,7 @@
         <v>50</v>
       </c>
       <c r="B16">
-        <v>1703</v>
+        <v>3824</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2592,7 +2592,7 @@
         <v>51</v>
       </c>
       <c r="B17">
-        <v>1702</v>
+        <v>5149</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2600,7 +2600,7 @@
         <v>52</v>
       </c>
       <c r="B18">
-        <v>1700</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2608,7 +2608,7 @@
         <v>53</v>
       </c>
       <c r="B19">
-        <v>1697</v>
+        <v>3836</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2616,7 +2616,7 @@
         <v>54</v>
       </c>
       <c r="B20">
-        <v>1695</v>
+        <v>5588</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2624,7 +2624,7 @@
         <v>55</v>
       </c>
       <c r="B21">
-        <v>1692</v>
+        <v>5659</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2632,7 +2632,7 @@
         <v>56</v>
       </c>
       <c r="B22">
-        <v>1690</v>
+        <v>4304</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2640,7 +2640,7 @@
         <v>57</v>
       </c>
       <c r="B23">
-        <v>1687</v>
+        <v>5190</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2648,7 +2648,7 @@
         <v>58</v>
       </c>
       <c r="B24">
-        <v>1686</v>
+        <v>6253</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2656,7 +2656,7 @@
         <v>59</v>
       </c>
       <c r="B25">
-        <v>1684</v>
+        <v>4172</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2664,7 +2664,7 @@
         <v>60</v>
       </c>
       <c r="B26">
-        <v>1681</v>
+        <v>4503</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2672,7 +2672,7 @@
         <v>61</v>
       </c>
       <c r="B27">
-        <v>1679</v>
+        <v>4295</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2680,7 +2680,7 @@
         <v>62</v>
       </c>
       <c r="B28">
-        <v>1676</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2688,7 +2688,7 @@
         <v>63</v>
       </c>
       <c r="B29">
-        <v>1673</v>
+        <v>4424</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2696,7 +2696,7 @@
         <v>64</v>
       </c>
       <c r="B30">
-        <v>1670</v>
+        <v>3682</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2704,7 +2704,7 @@
         <v>65</v>
       </c>
       <c r="B31">
-        <v>1668</v>
+        <v>2998</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2712,7 +2712,7 @@
         <v>66</v>
       </c>
       <c r="B32">
-        <v>1666</v>
+        <v>3025</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2720,7 +2720,7 @@
         <v>67</v>
       </c>
       <c r="B33">
-        <v>1664</v>
+        <v>4101</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2728,20 +2728,20 @@
         <v>68</v>
       </c>
       <c r="B34">
-        <v>1661</v>
+        <v>3469</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:B34" xr:uid="{CC946496-8FC9-4D48-AEA7-BDD6CA741521}"/>
+  <autoFilter ref="A3:B34" xr:uid="{F6F81FE9-5A5B-4A42-9EA4-2808E573ECB0}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{36047324-7B0A-4A6D-81B4-2B2A90D8E277}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{8CF4A613-2D4F-46C1-85BC-AC1A3EBA0AEB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C09017D-15E4-4058-8F91-EEE4937383FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61E656DD-FBB4-4183-869D-E6E5EDCE1CB2}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2792,16 +2792,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:B5" xr:uid="{CD1D4DB8-009E-4B45-9DAD-034DFE23563B}"/>
+  <autoFilter ref="A3:B5" xr:uid="{B1D10016-BFD5-40A9-AD9D-937CD679E4A2}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{65877CC7-5098-4D62-BAD7-E80748C7940C}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{B3896955-4E9A-4337-AE9E-123883C251F9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{563F2EED-D2CA-4821-9EF0-15133422FA72}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8E8B69B-E7B2-464D-A9B8-47DD96DAE407}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2849,16 +2849,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:A5" xr:uid="{63585E58-35EB-4480-B693-5561BBDE8124}"/>
+  <autoFilter ref="A3:A5" xr:uid="{46F08900-B44A-4FC2-A135-F90D16C3EE29}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{6F111DAD-3BDD-48C5-A186-87BFF185A411}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{0FA395BF-D034-4214-8AB0-9B75C44B0A29}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC74EEE6-F878-4458-98C0-06145D6851B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{489E3066-E073-4D31-8874-7D15566E2E3F}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2906,16 +2906,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:A5" xr:uid="{DDA201CA-E07A-425F-A97D-A92E2E03BF5D}"/>
+  <autoFilter ref="A3:A5" xr:uid="{DFBF14BF-5B96-428F-B492-6CBA4B6B6AA4}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{A5BC8117-6D72-44BD-BB51-D33CF26E6019}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{219F8BD3-2306-4233-8FCE-BBE52AD1ADB4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E009904E-1974-4698-897B-EB5B6DE54404}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A08AAC20-96CD-4BD3-8F6C-10991649DAB7}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2966,16 +2966,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:B5" xr:uid="{DF78B1CA-EDFD-4537-90ED-0ED5CCECC92F}"/>
+  <autoFilter ref="A3:B5" xr:uid="{23DDBC9F-8466-4199-BD06-87040DFE6C3E}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{319620A7-9CDC-417A-8F31-2EF0AB2CED23}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{65D24BE7-3110-4444-ACFB-078B6898F7FC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D56E51C-28CB-4280-9AD1-AB3F15F1C0A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B178DA84-2709-406C-82C1-5376AEDABDA1}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3026,16 +3026,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:B5" xr:uid="{EF10664F-803F-4756-AEF5-A61DDFFDBD96}"/>
+  <autoFilter ref="A3:B5" xr:uid="{62389957-C3D7-4202-A7E2-B9BA03D2A380}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{9358BE60-1CB3-4254-9E70-5AD89C907304}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{94B24F52-95CA-4179-8652-1F4636A9B5CB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{429525B7-D9B0-4DB0-8500-F9C5D6E83934}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92111200-D538-438D-A651-A781C0ADEDBE}">
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3162,7 +3162,7 @@
         <v>111</v>
       </c>
       <c r="B12">
-        <v>11823376.770960001</v>
+        <v>12030761.436960001</v>
       </c>
       <c r="C12" t="s">
         <v>112</v>
@@ -3273,7 +3273,7 @@
         <v>14</v>
       </c>
       <c r="C22">
-        <v>12815979.136</v>
+        <v>12964160.032</v>
       </c>
       <c r="D22" t="s">
         <v>15</v>
@@ -3333,7 +3333,7 @@
         <v>14</v>
       </c>
       <c r="C25">
-        <v>11823376.770960001</v>
+        <v>12030761.436960001</v>
       </c>
       <c r="D25" t="s">
         <v>15</v>
@@ -3450,13 +3450,13 @@
         <v>145</v>
       </c>
       <c r="B32">
-        <v>-111811.76999999999</v>
+        <v>-52608</v>
       </c>
       <c r="C32">
-        <v>-111811.76999999999</v>
+        <v>-52608</v>
       </c>
       <c r="D32">
-        <v>-111811.76999999999</v>
+        <v>-52608</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -3473,7 +3473,7 @@
         <v>8950000</v>
       </c>
       <c r="C33">
-        <v>11823376.770960001</v>
+        <v>12030761.436960001</v>
       </c>
       <c r="D33" t="s">
         <v>15</v>
@@ -3493,7 +3493,7 @@
         <v>14</v>
       </c>
       <c r="C34">
-        <v>11823376.770960001</v>
+        <v>12030761.436960001</v>
       </c>
       <c r="D34">
         <v>25000000</v>
@@ -3530,13 +3530,13 @@
         <v>152</v>
       </c>
       <c r="B36">
-        <v>12815979.136</v>
+        <v>12964160.032</v>
       </c>
       <c r="C36">
-        <v>12815979.136</v>
+        <v>12964160.032</v>
       </c>
       <c r="D36">
-        <v>12815979.136</v>
+        <v>12964160.032</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -3587,14 +3587,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{CF674B94-62D8-4E40-B0E9-462B59844D58}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{47F1CC09-F4AC-4767-8469-DB43C65254AB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88593DD0-5B67-45DE-AA47-881493316B73}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE5460A-A731-4146-BFB1-C12C74F7E6CC}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3645,16 +3645,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:B5" xr:uid="{EC836DA1-2BFE-4E55-8702-2BCCC120F9CC}"/>
+  <autoFilter ref="A3:B5" xr:uid="{B421CF4F-33F7-489E-A670-5B55BD3B1232}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{FA6C0AD0-FA28-438F-852E-34097300AD41}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{12ECF2BA-0161-417A-A6F6-8BA966B989C6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EFFD497-5ED1-48A1-8D58-FD37DC790655}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CA3BBB2-CBD8-4B78-AC61-6F61C4BE045D}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3732,16 +3732,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E5" xr:uid="{5002C449-5DA7-4132-87FA-7ACAB792CF99}"/>
+  <autoFilter ref="A3:E5" xr:uid="{4E397560-1D13-4BD3-963B-4474C6790199}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{8ACC77F5-B3DE-4728-AF8D-EB10D96A1BBA}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{B4F4131F-A5C8-4BD3-8B8F-693478F54EB4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D36B48D7-218D-4631-9632-D50EE39C66EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01F9441F-ED70-42D8-A6A6-05A898A9F5FE}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3792,16 +3792,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:B5" xr:uid="{176C468B-E3A6-45F6-B1DB-86FAF4EBC866}"/>
+  <autoFilter ref="A3:B5" xr:uid="{F5191F71-7B1E-49A7-ADEB-1C217F30E80A}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{07383B3B-1F1B-4EE8-9AC5-5494BBD6602B}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{199E1038-EC9F-473F-A5AF-9388759C0444}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CFDBE22-D008-4049-9A7B-6A38E0D5053A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C79F4094-3CE4-4576-B470-A90E7069C3BB}">
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3988,16 +3988,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:A34" xr:uid="{765FC02A-6914-43BF-A141-B9FBBDC77090}"/>
+  <autoFilter ref="A3:A34" xr:uid="{AE16DEE7-EB20-473E-91D6-0F12D77FAAD7}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{8963009F-DA70-4511-AD72-12FC348EE4E2}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{893A2596-5F5B-482A-A9BF-A9B9D5EDAC32}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15B28DC0-5821-4765-9BDC-D51183A27A19}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{705A0402-1FFF-48AE-80C7-702EAFB34E96}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4048,16 +4048,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:B5" xr:uid="{FBFDA0A3-BD67-432B-8BFC-45EF85A96D34}"/>
+  <autoFilter ref="A3:B5" xr:uid="{DB86B089-4682-4FE8-BEF3-C36522EAAB8D}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{0F08596A-4C8E-4549-976A-BC7A3CBD9B53}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{49260286-37C6-4BE5-9789-7CAD611970F3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC197D74-1C0F-4B72-BAF7-9BDC72E27C1C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11451ABA-760C-48E6-B56F-57788BF7E035}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4108,16 +4108,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:B5" xr:uid="{7D3F51A7-CCE7-45CF-975F-19533AA08832}"/>
+  <autoFilter ref="A3:B5" xr:uid="{3C5C73C1-B540-42E4-A034-A35A567C17B0}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{3A0F861A-A030-40CC-9955-1202A5A97AAC}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{B90ECC3D-1270-418F-9A88-85372F71C804}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{235ABD20-6BC1-4F18-B259-8C557B4744B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E4E252-94EB-4BD1-A27D-059D2819B290}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4195,16 +4195,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E5" xr:uid="{7A562C55-2EDB-4CEA-9676-01B9188CB9AA}"/>
+  <autoFilter ref="A3:E5" xr:uid="{6549A5AE-A0EF-409D-99E9-D0017286B77E}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{B655CD6B-8536-4A19-BB2D-62288A2C95A2}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{0E7C49E8-BDFA-478D-8350-4C179EF42518}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40087452-047E-40A0-A3D2-F507784DCF96}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B191AD45-8DEC-46B5-950D-464DB22A6230}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4282,16 +4282,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E5" xr:uid="{4DDDC347-45A4-4FC1-9852-5B549DD79059}"/>
+  <autoFilter ref="A3:E5" xr:uid="{04890B83-C800-40B4-B8DF-40FE7EB17223}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{F8294AD3-27EA-4B3B-A807-0CE9F3951EC4}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{4A75A465-8905-465C-9073-E390A1E6B1E0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B51070E2-D799-47C5-8712-D08DE81B3755}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52592711-DA97-4E1B-A845-AD36E6B1BCF9}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4369,16 +4369,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E5" xr:uid="{3D9582F2-F4C0-48D1-A9AB-19EF30B823D5}"/>
+  <autoFilter ref="A3:E5" xr:uid="{60E24652-C486-4851-8B39-CC5F569C4E55}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{03E346C3-E36D-4ADE-986D-6B79E27EFD59}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{9EFC15C3-CB95-478D-B3ED-0BD9DDAFBF98}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8393BF13-9B9F-4EEB-A029-2FBDB58C9A1B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{320C28AE-8A7F-419C-A996-C550CB779418}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4456,9 +4456,9 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E5" xr:uid="{EE3E44F7-960D-464A-932F-D9240B32052E}"/>
+  <autoFilter ref="A3:E5" xr:uid="{4641CFE6-7C49-4C83-8AF1-5D722ADA19C4}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{6A80B0A4-7D5C-4CD4-8F83-D75D7F929FAB}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{C8977843-138E-45DF-857A-23CFF96EBEB4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
